--- a/Stock Analysis.xlsx
+++ b/Stock Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\stock-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD40594-7ACE-42DC-9762-C4B8644ED314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C419C0E-3CF6-482C-B6BD-BE41438673F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21ACF4ED-0E2E-4C90-8507-DDEA84D1797B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21ACF4ED-0E2E-4C90-8507-DDEA84D1797B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>5675</v>
+    <v>5625</v>
     <v>4290</v>
     <v>1.3815999999999999</v>
     <v>-30</v>
@@ -1198,7 +1198,7 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>3560</v>
+    <v>3490</v>
     <v>1685</v>
     <v>-0.10730000000000001</v>
     <v>15</v>
@@ -1748,7 +1748,7 @@
     <v>Finance</v>
     <v>4</v>
     <v>3350</v>
-    <v>1900</v>
+    <v>1905</v>
     <v>2.4453999999999998</v>
     <v>0</v>
     <v>0</v>
@@ -2797,7 +2797,7 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>995</v>
+    <v>990</v>
     <v>610</v>
     <v>1.0688</v>
     <v>5</v>
@@ -2989,7 +2989,7 @@
     <v>Finance</v>
     <v>4</v>
     <v>15000</v>
-    <v>6450</v>
+    <v>6525</v>
     <v>175</v>
     <v>2.1147999999999997E-2</v>
     <v>IDR</v>
@@ -3482,7 +3482,7 @@
     <v>Finance</v>
     <v>4</v>
     <v>3880</v>
-    <v>1970</v>
+    <v>2030</v>
     <v>0.16520000000000001</v>
     <v>10</v>
     <v>3.2260000000000001E-3</v>
@@ -5050,26 +5050,26 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="F5" s="2" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">_FV(B5,"52 week high",TRUE)</f>
-        <v>5675</v>
+        <v>5625</v>
       </c>
       <c r="G5" s="1" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_FV(B5,"52 week low",TRUE)</f>
@@ -5337,7 +5337,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="F6" s="2" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_FV(B6,"52 week high",TRUE)</f>
-        <v>3560</v>
+        <v>3490</v>
       </c>
       <c r="G6" s="1" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_FV(B6,"52 week low",TRUE)</f>
@@ -5393,7 +5393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="G17" s="1" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">_FV(B17,"52 week low",TRUE)</f>
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">_FV(B17,"Industry")</f>
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="F38" s="2" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">_FV(B38,"52 week high",TRUE)</f>
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="G38" s="1" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">_FV(B38,"52 week low",TRUE)</f>
@@ -7185,7 +7185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="G42" s="1" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">_FV(B42,"52 week low",TRUE)</f>
-        <v>6450</v>
+        <v>6525</v>
       </c>
       <c r="H42" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">_FV(B42,"Industry")</f>
@@ -7409,7 +7409,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="G52" s="1" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">_FV(B52,"52 week low",TRUE)</f>
-        <v>1970</v>
+        <v>2030</v>
       </c>
       <c r="H52" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">_FV(B52,"Industry")</f>
@@ -7969,7 +7969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
